--- a/productiveedge.xlsx
+++ b/productiveedge.xlsx
@@ -44,7 +44,7 @@
     <t>parentURLs</t>
   </si>
   <si>
-    <t>https://www.productiveedge.com/</t>
+    <t>https://www.productiveedge.com</t>
   </si>
   <si>
     <t>PROCESSED</t>
@@ -59,13 +59,13 @@
     <t>[https://goo.gl/maps/c3hgman3qps, https://blog.productiveedge.com/, http://www.facebook.com/productiveedge, https://www.linkedin.com/company/productive-edge-llc-, https://twitter.com/productiveedge]</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/iot-preventative-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/blog/roadblocks-smart-services/, https://www.productiveedge.com/blog, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/case-study/law-cs, https://www.productiveedge.com/blog/digital-marketing-challenges/, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/blog/organization-ready-dxp/, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/case-study/hockey-experience-cs, https://www.productiveedge.com/company/recognition-awards]</t>
+    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/iot-preventative-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/blog/roadblocks-smart-services/, https://www.productiveedge.com/blog, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/case-study/law-cs, https://www.productiveedge.com/blog/digital-marketing-challenges/, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/blog/organization-ready-dxp/, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com, https://www.productiveedge.com/case-study/hockey-experience-cs, https://www.productiveedge.com/company/recognition-awards]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/iot-preventative-cs, https://www.productiveedge.com/case-study/beauty-cs, https://www.productiveedge.com/case-study/observatory-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/case-study/caregiver-cs, https://www.productiveedge.com/case-study/health-insurance-cs, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/case-study/law-cs, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/case-study/rx-automation-cs, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/case-study/insurance-health-cs, https://www.productiveedge.com/case-study/hockey-experience-cs, https://www.productiveedge.com/company/recognition-awards]</t>
+    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/iot-preventative-cs, https://www.productiveedge.com/case-study/beauty-cs, https://www.productiveedge.com/case-study/observatory-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/case-study/caregiver-cs, https://www.productiveedge.com/case-study/health-insurance-cs, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/case-study/law-cs, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/case-study/rx-automation-cs, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com, https://www.productiveedge.com/case-study/insurance-health-cs, https://www.productiveedge.com/case-study/hockey-experience-cs, https://www.productiveedge.com/company/recognition-awards]</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/blog</t>
@@ -254,7 +254,7 @@
     <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com/company/recognition-awards]</t>
+    <t>[https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com, https://www.productiveedge.com/company/recognition-awards]</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/case-study/health-insurance-cs</t>
@@ -272,7 +272,7 @@
     <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/case-study/hockey-experience-cs, https://www.productiveedge.com/company/recognition-awards]</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/case-study/hockey-experience-cs]</t>
+    <t>[https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com, https://www.productiveedge.com/case-study/hockey-experience-cs]</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/case-study/insurance-health-cs</t>
@@ -290,7 +290,7 @@
     <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/iot-preventative-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/, https://www.productiveedge.com/case-study/iot-preventative-cs]</t>
+    <t>[https://www.productiveedge.com/case-study/iot-preventative-cs, https://www.productiveedge.com]</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/case-study/law-cs</t>
@@ -299,7 +299,7 @@
     <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/case-study/law-cs, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/case-study/law-cs]</t>
+    <t>[https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com, https://www.productiveedge.com/case-study/law-cs]</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/case-study/observatory-cs</t>
@@ -516,10 +516,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>

--- a/productiveedge.xlsx
+++ b/productiveedge.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="56">
   <si>
     <t>url</t>
   </si>
@@ -65,261 +65,39 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/iot-preventative-cs, https://www.productiveedge.com/case-study/beauty-cs, https://www.productiveedge.com/case-study/observatory-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/case-study/caregiver-cs, https://www.productiveedge.com/case-study/health-insurance-cs, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/case-study/law-cs, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/case-study/rx-automation-cs, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com, https://www.productiveedge.com/case-study/insurance-health-cs, https://www.productiveedge.com/case-study/hockey-experience-cs, https://www.productiveedge.com/company/recognition-awards]</t>
+    <t>[https://www.productiveedge.com]</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/blog</t>
   </si>
   <si>
-    <t>REDIRECT_OR_INVALID_URL</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/digital-strategy]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/better-search-experience-builds-brand/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/better-search-experience-builds-brand/</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/blockchain-and-the-enterprise/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/blockchain-and-the-enterprise/</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/connected-products-accelerate-growth/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/connected-products-accelerate-growth/</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/technology/iot]</t>
+    <t>UNPROCESSED</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/blog/digital-marketing-challenges/</t>
   </si>
   <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/digital-marketing-challenges/</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/digital-strategy]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/enterprise-digital-doer-movement/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/enterprise-digital-doer-movement/</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/technology/ar-vr]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/game-changing-innovations-in-mobile-testing-automation/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/game-changing-innovations-in-mobile-testing-automation/</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/insights-microsoft-inspire/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/insights-microsoft-inspire/</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/interview-raheel-retiwalla-on-dxps-and-digital-transformation/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/interview-raheel-retiwalla-on-dxps-and-digital-transformation/</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/digital-strategy]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/blog/organization-ready-dxp/</t>
   </si>
   <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/organization-ready-dxp/</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/digital-strategy]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/productive-edge-q2-ai-update/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/productive-edge-q2-ai-update/</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/technology/intelligent-automation]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/productive-edge-virtual-reality-check-2016-trends-in-vr-ar-and-mr/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/productive-edge-virtual-reality-check-2016-trends-in-vr-ar-and-mr/</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/technology/ar-vr]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/real-business-value-behind-xamarin/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/real-business-value-behind-xamarin/</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/blog/roadblocks-smart-services/</t>
   </si>
   <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/roadblocks-smart-services/</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/solutions/smart-services]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/six-observations-from-the-distributed-health-blockchain-conference/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/six-observations-from-the-distributed-health-blockchain-conference/</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/two-truths-b2b-mobile-engagement/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/two-truths-b2b-mobile-engagement/</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/whats-in-the-works-for-artificial-intelligence-technology-in-2017/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/whats-in-the-works-for-artificial-intelligence-technology-in-2017/</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/technology/intelligent-automation]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/whats-our-edge/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/whats-our-edge/</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/why-you-need-bayesian-ai-in-your-boardroom/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/why-you-need-bayesian-ai-in-your-boardroom/</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/blog/xamarin-is-mobilizing-blockchain/</t>
-  </si>
-  <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/blog/xamarin-is-mobilizing-blockchain/</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/careers</t>
   </si>
   <si>
-    <t>[https://goo.gl/maps/c3hgman3qps, https://jobs.jobvite.com/pe, https://blog.productiveedge.com/, http://www.facebook.com/productiveedge, https://www.linkedin.com/company/productive-edge-llc-, https://twitter.com/productiveedge]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/case-study/beauty-cs</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/beauty-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/case-study/beauty-cs, https://www.productiveedge.com/technology/sitecore]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/case-study/caregiver-cs</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/case-study/caregiver-cs, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/case-study/caregiver-cs, https://www.productiveedge.com/solutions/modern-mobility]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/case-study/cruise-line-cs</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/case-study/health-insurance-cs</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/case-study/health-insurance-cs, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/case-study/health-insurance-cs, https://www.productiveedge.com/technology/sitecore]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/case-study/hockey-experience-cs</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/case-study/hockey-experience-cs, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com, https://www.productiveedge.com/case-study/hockey-experience-cs]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/case-study/insurance-health-cs</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/case-study/insurance-health-cs, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/case-study/insurance-health-cs]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/case-study/iot-preventative-cs</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/iot-preventative-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/case-study/iot-preventative-cs, https://www.productiveedge.com]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/case-study/law-cs</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/case-study/law-cs, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com, https://www.productiveedge.com/case-study/law-cs]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/case-study/observatory-cs</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/observatory-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/case-study/observatory-cs, https://www.productiveedge.com/digital-strategy]</t>
-  </si>
-  <si>
-    <t>https://www.productiveedge.com/case-study/rx-automation-cs</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/case-study/rx-automation-cs, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/rx-automation-cs, https://www.productiveedge.com/solutions/intelligent-automation]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/company/culture</t>
   </si>
   <si>
@@ -329,145 +107,73 @@
     <t>https://www.productiveedge.com/company/portfolio</t>
   </si>
   <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/company/portfolio</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/beauty-cs, https://www.productiveedge.com/case-study/observatory-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/case-study/caregiver-cs, https://www.productiveedge.com/case-study/health-insurance-cs, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/case-study/rx-automation-cs, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/case-study/insurance-health-cs, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/company/recognition-awards</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/company/strategic-partnerships</t>
   </si>
   <si>
-    <t>[https://www.datarobot.com/, http://www.sitecore.com, https://goo.gl/maps/c3hgman3qps, https://blog.productiveedge.com/, http://www.facebook.com/productiveedge, https://www.edgexp.com, https://www.linkedin.com/company/productive-edge-llc-, http://www.microsoft.com, https://azure.microsoft.com/en-us, https://docs.microsoft.com/en-us/xamarin/, https://www.thinktime.com/, http://www.magnolia-cms.com, https://www.broadleafcommerce.com/, https://www.coveo.com/en, https://twitter.com/productiveedge]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/company/team</t>
   </si>
   <si>
-    <t>[https://www.linkedin.com/in/paul-gerlach-2ab747/, https://www.linkedin.com/in/tannermorris/, https://www.linkedin.com/in/thomasdicicco/, https://www.linkedin.com/in/ellie-dicianni-phr-67132328/, https://goo.gl/maps/c3hgman3qps, https://blog.productiveedge.com/, http://www.facebook.com/productiveedge, https://www.linkedin.com/in/evan-roth-1000384/, https://www.linkedin.com/in/aekendall/, https://www.linkedin.com/in/dave-pellissier-21ab956/, https://www.linkedin.com/in/scott-pandel-2655a551/, https://www.linkedin.com/in/wyattkapastin/, https://www.linkedin.com/in/alexandershumakov/, https://www.linkedin.com/in/kjford/, https://twitter.com/productiveedge, https://www.linkedin.com/in/carmen-bertucci-01a181/, https://www.linkedin.com/in/max-artyukhov-61896959/, https://www.linkedin.com/in/raheelretiwalla/, https://www.linkedin.com/in/timeaarnold/, https://www.linkedin.com/in/maytee/, https://www.linkedin.com/in/williamrolloff/, https://www.linkedin.com/in/joel-livet-0790221/, https://www.linkedin.com/in/maria-konshina/, https://www.linkedin.com/company/productive-edge-llc-]</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/contact-us</t>
   </si>
   <si>
-    <t>[https://goo.gl/maps/c3hgman3qps, https://blog.productiveedge.com/, http://www.facebook.com/productiveedge, https://www.linkedin.com/company/productive-edge-llc-, https://www.google.com/maps/place/productive+edge/@41.8906407,-87.6296368,17z/data=!3m1!4b1!4m2!3m1!1s0x880e2cae0c5f6c2b:0x8d19ddec8374487, https://twitter.com/productiveedge]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/customer-experience</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/case-study/observatory-cs, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/blog/digital-marketing-challenges/, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/blog/organization-ready-dxp/, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/blog/interview-raheel-retiwalla-on-dxps-and-digital-transformation/, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://productiveedge.com/blog, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/digital-strategy</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/insights/content-library</t>
   </si>
   <si>
-    <t>Can't execute http-get request to url https://www.productiveedge.com/insights/content-library</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/privacy, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/beauty-cs, https://www.productiveedge.com/case-study/rx-automation-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/caregiver-cs, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/case-study/health-insurance-cs, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/case-study/insurance-health-cs]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/privacy</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/solutions/immersive-experiences</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/blog/enterprise-digital-doer-movement/, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/blog/productive-edge-virtual-reality-check-2016-trends-in-vr-ar-and-mr/, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/case-study/hockey-experience-cs, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/solutions/intelligent-automation</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/blog/game-changing-innovations-in-mobile-testing-automation/, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/blog/productive-edge-q2-ai-update/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/case-study/rx-automation-cs, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/blog/why-you-need-bayesian-ai-in-your-boardroom/, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/solutions/intranets-portals</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/case-study/law-cs, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/blog/organization-ready-dxp/, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/blog/whats-our-edge/, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/blog/enterprise-digital-doer-movement/, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/solutions/marketing-transformation</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/blog/better-search-experience-builds-brand/, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/blog/digital-marketing-challenges/, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/blog/organization-ready-dxp/, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://productiveedge.com/blog, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/solutions/modern-mobility</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/case-study/caregiver-cs, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/blog/two-truths-b2b-mobile-engagement/, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/blog/insights-microsoft-inspire/, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/blog/real-business-value-behind-xamarin/, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://productiveedge.com/blog, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/solutions/operationalizing-ai</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/blog/whats-in-the-works-for-artificial-intelligence-technology-in-2017/, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/blog/productive-edge-q2-ai-update/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/case-study/rx-automation-cs, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/blog/why-you-need-bayesian-ai-in-your-boardroom/, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/solutions/smart-services</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/blog/roadblocks-smart-services/, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/blog/connected-products-accelerate-growth/, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/blog/interview-raheel-retiwalla-on-dxps-and-digital-transformation/, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/case-study/insurance-health-cs, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/technology/ar-vr</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/case-study/observatory-cs, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/blog/whats-our-edge/, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/blog/enterprise-digital-doer-movement/, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/blog/productive-edge-virtual-reality-check-2016-trends-in-vr-ar-and-mr/, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/case-study/hockey-experience-cs, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/technology/artificial-intelligence</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/technology/blockchain</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/blog/blockchain-and-the-enterprise/, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/blog/xamarin-is-mobilizing-blockchain/, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/blog/six-observations-from-the-distributed-health-blockchain-conference/, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/technology/cloud</t>
   </si>
   <si>
-    <t>[http://blogs.productiveedge.com/connected-products-accelerate-growth/, https://goo.gl/maps/c3hgman3qps, http://blogs.productiveedge.com/roadblocks-smart-services/, https://blog.productiveedge.com/, http://www.facebook.com/productiveedge, https://www.linkedin.com/company/productive-edge-llc-, http://blogs.productiveedge.com/insights-microsoft-inspire/, https://twitter.com/productiveedge]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/technology/intelligent-automation</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/blog/whats-in-the-works-for-artificial-intelligence-technology-in-2017/, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/blog/productive-edge-q2-ai-update/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/case-study/rx-automation-cs, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/blog/why-you-need-bayesian-ai-in-your-boardroom/, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/technology/iot</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/blog/roadblocks-smart-services/, https://www.productiveedge.com/blog, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/blog/connected-products-accelerate-growth/, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/blog/interview-raheel-retiwalla-on-dxps-and-digital-transformation/, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/technology/magnolia</t>
   </si>
   <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/blog/digital-marketing-challenges/, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/blog/organization-ready-dxp/, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/blog/interview-raheel-retiwalla-on-dxps-and-digital-transformation/, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/case-study/cruise-line-cs, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
-  </si>
-  <si>
     <t>https://www.productiveedge.com/technology/sitecore</t>
-  </si>
-  <si>
-    <t>[https://www.productiveedge.com/company/office-locations, https://www.productiveedge.com/technology/artificial-intelligence, https://www.productiveedge.com/solutions/intranets-portals, https://www.productiveedge.com/solutions/marketing-transformation, https://www.productiveedge.com/technology/intelligent-automation, https://www.productiveedge.com/case-study/beauty-cs, https://www.productiveedge.com/technology/blockchain, https://www.productiveedge.com/solutions/intelligent-automation, https://www.productiveedge.com/solutions/immersive-experiences, https://www.productiveedge.com/company/portfolio, https://www.productiveedge.com/company/culture, https://www.productiveedge.com/company/strategic-partnerships, https://www.productiveedge.com/, https://www.productiveedge.com/case-study/health-insurance-cs, https://www.productiveedge.com/customer-experience, https://www.productiveedge.com/contact-us, https://www.productiveedge.com/digital-strategy, https://www.productiveedge.com/case-study/law-cs, https://www.productiveedge.com/blog/digital-marketing-challenges/, https://www.productiveedge.com/company/team, https://www.productiveedge.com/privacy, https://www.productiveedge.com/blog/organization-ready-dxp/, https://www.productiveedge.com/insights/content-library, https://www.productiveedge.com/technology/cloud, https://www.productiveedge.com/technology/sitecore, https://www.productiveedge.com/solutions/smart-services, https://www.productiveedge.com/blog/interview-raheel-retiwalla-on-dxps-and-digital-transformation/, https://www.productiveedge.com/technology/xamarin, https://www.productiveedge.com/solutions/operationalizing-ai, https://www.productiveedge.com/terms-of-use, https://www.productiveedge.com/technology/iot, https://www.productiveedge.com/technology/magnolia, https://www.productiveedge.com/technology/ar-vr, https://www.productiveedge.com/careers, https://www.productiveedge.com/solutions/modern-mobility, https://www.productiveedge.com/company/recognition-awards]</t>
   </si>
   <si>
     <t>https://www.productiveedge.com/technology/xamarin</t>
@@ -531,16 +237,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="99.10546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.80078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.5234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="132.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.3515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.69921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="36.203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="191.43359375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="255.0" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.40625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.84765625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="33.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -612,13 +318,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -636,21 +342,21 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -668,21 +374,21 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -700,21 +406,21 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -732,21 +438,21 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -764,21 +470,21 @@
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -796,21 +502,21 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -828,21 +534,21 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -860,21 +566,21 @@
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -892,21 +598,21 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -924,21 +630,21 @@
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -956,21 +662,21 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -988,21 +694,21 @@
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1020,21 +726,21 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1052,21 +758,21 @@
         <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -1084,21 +790,21 @@
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1116,21 +822,21 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -1148,21 +854,21 @@
         <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -1180,21 +886,21 @@
         <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -1212,21 +918,21 @@
         <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -1244,30 +950,30 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
         <v>16</v>
@@ -1281,25 +987,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
@@ -1308,30 +1014,30 @@
         <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
@@ -1340,30 +1046,30 @@
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -1372,30 +1078,30 @@
         <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
@@ -1404,30 +1110,30 @@
         <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
@@ -1436,30 +1142,30 @@
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
@@ -1468,30 +1174,30 @@
         <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -1500,30 +1206,30 @@
         <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
         <v>16</v>
@@ -1532,30 +1238,30 @@
         <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
@@ -1564,30 +1270,30 @@
         <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -1596,30 +1302,30 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
         <v>16</v>
@@ -1633,25 +1339,25 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
         <v>16</v>
@@ -1665,16 +1371,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -1692,30 +1398,30 @@
         <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
         <v>16</v>
@@ -1729,25 +1435,25 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
         <v>16</v>
@@ -1761,25 +1467,25 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -1788,710 +1494,6 @@
         <v>16</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" t="b">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" t="b">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>117</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>117</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" t="b">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" t="b">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" t="b">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>130</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" t="b">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>132</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>133</v>
-      </c>
-      <c r="B50" t="b">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>134</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" t="b">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" t="b">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>138</v>
-      </c>
-      <c r="H52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" t="b">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>134</v>
-      </c>
-      <c r="H53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" t="b">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>141</v>
-      </c>
-      <c r="H54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" t="b">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" t="s">
-        <v>143</v>
-      </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" t="b">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>145</v>
-      </c>
-      <c r="H56" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" t="b">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>147</v>
-      </c>
-      <c r="H57" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" t="b">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>149</v>
-      </c>
-      <c r="H58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" t="b">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>151</v>
-      </c>
-      <c r="H59" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" t="b">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>71</v>
-      </c>
-      <c r="H60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>153</v>
-      </c>
-      <c r="B61" t="b">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H61" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" t="s">
         <v>17</v>
       </c>
     </row>
